--- a/result/cor_resume.xlsx
+++ b/result/cor_resume.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/JM/NanoString/IFN_covid_nano/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B606F51-FC7D-B64E-BA86-578AB04174A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B71888-4717-7A47-93FE-6C8F615C5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{A8943D35-6F4F-5D4F-A5D7-760A3E0B2F51}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="18880" activeTab="1" xr2:uid="{A8943D35-6F4F-5D4F-A5D7-760A3E0B2F51}"/>
   </bookViews>
   <sheets>
-    <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V1_sup" sheetId="1" r:id="rId1"/>
+    <sheet name="V1_non_sup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V1'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">V1_non_sup!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">V1_sup!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,37 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>TCRgd +</t>
-  </si>
-  <si>
-    <t>T cell</t>
-  </si>
-  <si>
-    <t>Monocytes non classical</t>
-  </si>
-  <si>
-    <t>Monocytes intermediate</t>
-  </si>
-  <si>
-    <t>Monocytes classical</t>
-  </si>
-  <si>
-    <t>Mature NK</t>
-  </si>
-  <si>
-    <t>Lin-DR+ (Dendritic)</t>
-  </si>
-  <si>
-    <t>CD4+ CD8+</t>
-  </si>
-  <si>
-    <t>CD123+ pDC</t>
-  </si>
-  <si>
-    <t>CD11c+ DC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
   <si>
     <t>Basophils</t>
   </si>
@@ -85,34 +57,32 @@
     <t>ACP</t>
   </si>
   <si>
+    <t>main_12</t>
+  </si>
+  <si>
+    <t>main_17</t>
+  </si>
+  <si>
+    <t>main_19</t>
+  </si>
+  <si>
+    <t>main_21</t>
+  </si>
+  <si>
+    <t>main_22</t>
+  </si>
+  <si>
+    <t>main_25</t>
+  </si>
+  <si>
+    <t>main_26</t>
+  </si>
+  <si>
+    <t>main_29</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Jours de prélèvement </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>avec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jours de prélèvement </t>
+      <t>Jours de prélèvement (</t>
     </r>
     <r>
       <rPr>
@@ -133,8 +103,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> T</t>
+      <t xml:space="preserve"> T)</t>
     </r>
+  </si>
+  <si>
+    <t>CD11c+_DC</t>
+  </si>
+  <si>
+    <t>CD123+_pDC</t>
+  </si>
+  <si>
+    <t>CD4+_CD8+</t>
+  </si>
+  <si>
+    <t>Lin-DR+_(Dendritic)</t>
+  </si>
+  <si>
+    <t>Mature_NK</t>
+  </si>
+  <si>
+    <t>Monocytes_classical</t>
+  </si>
+  <si>
+    <t>Monocytes_intermediate</t>
+  </si>
+  <si>
+    <t>Monocytes_non_classical</t>
+  </si>
+  <si>
+    <t>T_cell</t>
+  </si>
+  <si>
+    <t>TCRgd_+</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,18 +161,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,19 +181,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,360 +518,697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7CDD04-A682-D44D-B737-2DD6F5AD88A3}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="A26:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.0896011928084602E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.51690664328220104</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.77662150525948903</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-5.5068671642920501E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.5748119759385902E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.51142481906596504</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.214859540184342</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.23745389793659699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B8" s="3">
+        <v>6.2903810761034103E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.49535038620733801</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.9282567701650901E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.38480417915428999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.5612868342048393E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.472993100787788</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.385193494325618</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.16747521653415301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4.4237163357267999E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-0.51307633112093398</v>
-      </c>
-      <c r="D3" s="4">
-        <v>7.2011756543521703E-3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-0.41351928733215099</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.214859540184342</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-0.23745389793659699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.9503045817295699E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-0.50751368727701596</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3.2545406723569598E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.44872253610653401</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.77662150525948903</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-5.5068671642920501E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>7.3959060800520803E-3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.48687707554840698</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.18095864834832001</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.21311184755228499</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3.9282570000000003E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.38480419999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8.4829122349149595E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.47953285920670902</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.4520651540698002E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.43526889428156301</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.385193494325618</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.16747521653415301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.4734093188198001E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.448275999674208</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.17801887003505401</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.21452309971651201</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7.7058418057102104E-2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-0.33350895444567602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2.52364392352269E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.414862427161028</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7.6931523991091696E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.279346414515038</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.75412772916006399</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-6.07797672228323E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2.7417093239811601E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-0.40942310853233399</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4.0248189452656499E-3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-0.43965976964695802</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.45323925660275199</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-0.14491291646525101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3.4288950910474403E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.39431360481132599</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.94733512574816003</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0644755965574E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.12856661204092301</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.28886672235850003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3.4952336662404999E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-0.39298864281889401</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5.36666283594548E-2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-0.30357403227455598</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.44036603729820001</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-0.14903045443280999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>3.6153763826877801E-2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-0.39063972852912698</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.35872908065935899</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.14710193708917599</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.7919601896257398E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-0.43648638276629498</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.7058418057102104E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.33350895444567602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.5830216051776E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-0.413344536353836</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.75412772916006399</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-6.07797672228323E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.93677979992128E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-0.40484793625950199</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.45323925660275199</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.14491291646525101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.01847501311664E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.40300489177619497</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.12856661204092301</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.28886672235850003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.2023271597474201E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-0.39900047215243101</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.44036603729820001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-0.14903045443280999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4.5486078332799197E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-0.37425506260866898</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.65999998714420105</v>
       </c>
-      <c r="G12" s="3">
+      <c r="E24" s="2">
         <v>8.5292466790769197E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>6.2421741059313397E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-0.35035625024288702</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.47851503283132002</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-0.113839160763689</v>
-      </c>
-      <c r="F13" s="3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5.9223677037940799E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-0.35444046771080401</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.51125726823503903</v>
       </c>
-      <c r="G13" s="3">
+      <c r="E28" s="2">
         <v>-0.127073398319901</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:G2" xr:uid="{33DE78BF-2B99-E646-B541-6A366F1D44C5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G13">
+  <autoFilter ref="A2:E2" xr:uid="{33DE78BF-2B99-E646-B541-6A366F1D44C5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E13">
       <sortCondition ref="B2:B13"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EDCAAF-D334-E040-B328-76E08B864BA1}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="A16:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.2240433662660598E-3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.52824475962529405</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.57221076936363702</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.10937612610115301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.5466633835709496E-3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-0.49327989380893</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.33137541312580898</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-0.187002524114291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.32647383460286E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-0.45444388726019402</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.85259264529027301</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.6080205070972801E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.2731936589553699E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.42160488956966902</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.54898476026965803</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.11601006548112799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.3388373903138401E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-0.41978111261477802</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.35599227373799802</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-0.17785338605833201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.7626689166505201E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.40891907150648998</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.5780356932259098E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.37378383011483002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4.9006301544936501E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.36876951424043097</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.36463823536982098</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.17473013377389501</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5.5294942748814399E-2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-0.35970120504921199</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.72698485635565102</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6.7738607173929294E-2</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{E9EDCAAF-D334-E040-B328-76E08B864BA1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E10">
+      <sortCondition ref="B2:B10"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result/cor_resume.xlsx
+++ b/result/cor_resume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/JM/NanoString/IFN_covid_nano/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B71888-4717-7A47-93FE-6C8F615C5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DFE1C-2A59-8E4F-B3D0-18CEECBB5A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="18880" activeTab="1" xr2:uid="{A8943D35-6F4F-5D4F-A5D7-760A3E0B2F51}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29120" windowHeight="18880" xr2:uid="{A8943D35-6F4F-5D4F-A5D7-760A3E0B2F51}"/>
   </bookViews>
   <sheets>
     <sheet name="V1_sup" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
-  <si>
-    <t>Basophils</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
   <si>
     <t>cor</t>
   </si>
@@ -107,34 +104,43 @@
     </r>
   </si>
   <si>
-    <t>CD11c+_DC</t>
-  </si>
-  <si>
-    <t>CD123+_pDC</t>
-  </si>
-  <si>
-    <t>CD4+_CD8+</t>
-  </si>
-  <si>
-    <t>Lin-DR+_(Dendritic)</t>
-  </si>
-  <si>
-    <t>Mature_NK</t>
-  </si>
-  <si>
-    <t>Monocytes_classical</t>
-  </si>
-  <si>
-    <t>Monocytes_intermediate</t>
-  </si>
-  <si>
-    <t>Monocytes_non_classical</t>
-  </si>
-  <si>
-    <t>T_cell</t>
-  </si>
-  <si>
-    <t>TCRgd_+</t>
+    <t>main_18_OR_main_21_OR_main_22|count</t>
+  </si>
+  <si>
+    <t>Classical|count</t>
+  </si>
+  <si>
+    <t>main_18_OR_main_19_OR_main_21_OR_main_22_OR_main_12|count</t>
+  </si>
+  <si>
+    <t>Monocyte_++|count</t>
+  </si>
+  <si>
+    <t>Lin-_DR+|count</t>
+  </si>
+  <si>
+    <t>CD3+_CD56-|count</t>
+  </si>
+  <si>
+    <t>CD4|count</t>
+  </si>
+  <si>
+    <t>CD3+_TCRdg-|count</t>
+  </si>
+  <si>
+    <t>Non_classical|count</t>
+  </si>
+  <si>
+    <t>CD11c+_DC_|count</t>
+  </si>
+  <si>
+    <t>CD4+_CD45RA+_CCR7+|count</t>
+  </si>
+  <si>
+    <t>CD4+_Naive|count</t>
+  </si>
+  <si>
+    <t>CCR7-_CD45RA-_TCRgd+|count</t>
   </si>
 </sst>
 </file>
@@ -189,20 +195,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,395 +524,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7CDD04-A682-D44D-B737-2DD6F5AD88A3}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="A26:E28"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D31" sqref="A31:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3.9590187290155197E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-0.38425078596655998</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.54959713873086102</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.115833517503673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.0158073114861699E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-0.42920098996641298</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.52240893730812799</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-0.123763518853205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8.9845503196925493E-3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.47640860018108899</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.389859458772505</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.16585984457976599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
+        <v>9.7225723848499996E-3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.47206899005349501</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.45639321929036503</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.14391367913418701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.37264089670252E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.41885824025847601</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.16349068141935</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.26576235106245499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3.03800336962173E-2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.40257032693026101</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.148196030021474</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.27539281720796099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9.5284154610522104E-3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.473183047525427</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.27569611421843598</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.20937089721382299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6.3569417465074302E-3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>-0.49480586598744503</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.37485190688169101</v>
+      </c>
+      <c r="E19" s="7">
+        <v>-0.171096258552666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4.3880093124982001E-3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>-0.51347364372661297</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.76784156437504902</v>
+      </c>
+      <c r="E23" s="7">
+        <v>-5.7292254910738402E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B24" s="7">
+        <v>3.52057703741342E-3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-0.52409457570104301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.70119417899403202</v>
+      </c>
+      <c r="E24" s="7">
+        <v>-7.4427878684774906E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5.1596340517771396E-3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>-0.50544191139835104</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.851471482863697</v>
+      </c>
+      <c r="E28" s="7">
+        <v>-3.6357660374987798E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.4453194921583401E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-0.44941427885534901</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.53649619120470005</v>
+      </c>
+      <c r="E29" s="7">
+        <v>-0.11963084583386401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4.0896011928084602E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-0.51690664328220104</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.77662150525948903</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-5.5068671642920501E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.5748119759385902E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-0.51142481906596504</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.214859540184342</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.23745389793659699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6.2903810761034103E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-0.49535038620733801</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3.9282567701650901E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.38480417915428999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9.5612868342048393E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.472993100787788</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.385193494325618</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.16747521653415301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.7919601896257398E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-0.43648638276629498</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7.7058418057102104E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.33350895444567602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2.5830216051776E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-0.413344536353836</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.75412772916006399</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-6.07797672228323E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2.93677979992128E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-0.40484793625950199</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.45323925660275199</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-0.14491291646525101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3.01847501311664E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.40300489177619497</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.12856661204092301</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.28886672235850003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3.2023271597474201E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-0.39900047215243101</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.44036603729820001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-0.14903045443280999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4.5486078332799197E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>-0.37425506260866898</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.65999998714420105</v>
-      </c>
-      <c r="E24" s="2">
-        <v>8.5292466790769197E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2">
-        <v>5.9223677037940799E-2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>-0.35444046771080401</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.51125726823503903</v>
-      </c>
-      <c r="E28" s="2">
-        <v>-0.127073398319901</v>
+      <c r="B33" s="7">
+        <v>3.8931034893199398E-3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-0.51928614352802904</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.76376074921487602</v>
+      </c>
+      <c r="E33" s="7">
+        <v>-5.8328157460193999E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E2" xr:uid="{33DE78BF-2B99-E646-B541-6A366F1D44C5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E13">
-      <sortCondition ref="B2:B13"/>
+  <autoFilter ref="A2:E2" xr:uid="{0D7CDD04-A682-D44D-B737-2DD6F5AD88A3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E15">
+      <sortCondition ref="A2:A15"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -916,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EDCAAF-D334-E040-B328-76E08B864BA1}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="A16:E19"/>
     </sheetView>
   </sheetViews>
@@ -931,251 +1001,251 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.2240433662660598E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.52824475962529405</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.57221076936363702</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.10937612610115301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
-        <v>3.2240433662660598E-3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.52824475962529405</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.57221076936363702</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.10937612610115301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>6.5466633835709496E-3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>-0.49327989380893</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>0.33137541312580898</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>-0.187002524114291</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.32647383460286E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.45444388726019402</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.85259264529027301</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.6080205070972801E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>1.32647383460286E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-0.45444388726019402</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.85259264529027301</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3.6080205070972801E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>2.2731936589553699E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>0.42160488956966902</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>0.54898476026965803</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>0.11601006548112799</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.3388373903138401E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-0.41978111261477802</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.35599227373799802</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.17785338605833201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6">
-        <v>2.3388373903138401E-2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-0.41978111261477802</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.35599227373799802</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-0.17785338605833201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="B14" s="2">
         <v>2.7626689166505201E-2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>0.40891907150648998</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>4.5780356932259098E-2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="2">
         <v>0.37378383011483002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.9006301544936501E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.36876951424043097</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.36463823536982098</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.17473013377389501</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
-        <v>4.9006301544936501E-2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.36876951424043097</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.36463823536982098</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.17473013377389501</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>5.5294942748814399E-2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <v>-0.35970120504921199</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <v>0.72698485635565102</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <v>6.7738607173929294E-2</v>
       </c>
       <c r="F19" s="1"/>
